--- a/inputs/Course Changes 2025-2026.xlsx
+++ b/inputs/Course Changes 2025-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jspenc35\projects\curriculog_excel_sheet_generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F5398-0FCB-49EF-B23B-D773696A562F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2008E34-D2EA-4BEC-8C6C-B218602A3B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{125E1219-2066-4676-87E7-42C796F6CDDF}"/>
   </bookViews>
@@ -567,7 +567,7 @@
     <t>course</t>
   </si>
   <si>
-    <t>2025-2026 UG Add Course; 2025-2026 UG Drop/Archive Course; 2025-2026 UG Revise Course;Courses Not Taught in 4 Years</t>
+    <t>2025-2026 UG Add Course; 2025-2026 UG Drop/Archive Course; 2025-2026 UG Revise Course;Courses Not Taught in 4 Years; 2025-2026 UG Change Course Number / Subject / Department</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inputs/Course Changes 2025-2026.xlsx
+++ b/inputs/Course Changes 2025-2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jspenc35\projects\curriculog_excel_sheet_generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2008E34-D2EA-4BEC-8C6C-B218602A3B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83892AB-3335-4DB4-81C8-DD1C4B10A13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{125E1219-2066-4676-87E7-42C796F6CDDF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="178">
   <si>
     <t>Field</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>2025-2026 UG Add Course; 2025-2026 UG Drop/Archive Course; 2025-2026 UG Revise Course;Courses Not Taught in 4 Years; 2025-2026 UG Change Course Number / Subject / Department</t>
+  </si>
+  <si>
+    <t>List all existing and/or new courses in this crosslisting relationship and note whether primary or secondary</t>
   </si>
 </sst>
 </file>
@@ -1057,11 +1060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B809DB27-F851-4238-909D-DC6D276C789A}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,82 +1131,152 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="8" t="b">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8" t="b">
-        <v>1</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1215,31 +1288,31 @@
           <x14:formula1>
             <xm:f>'Options (Ignore)'!$B$4:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B77:B301</xm:sqref>
+          <xm:sqref>B92:B316</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use this to include an additional field from the proposal as a comment in the cell. Good for fields in the proposal that has lots of text.  " xr:uid="{B019C073-487B-47B8-8ABF-602FE6834B7C}">
           <x14:formula1>
             <xm:f>'Options (Ignore)'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F17:F28 F2:F14</xm:sqref>
+          <xm:sqref>F32:F43 F2:F29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The field to separate sheets by. Creates a separate sheet for each unique value in the field. If the field is &quot;College&quot; and the proposals are from A&amp;S and Tickle Engineering, a sheet titled A&amp;S and a sheet titled Tickle Engineering are created." xr:uid="{CCE53851-1D4A-4889-8217-59A49DFAA977}">
           <x14:formula1>
             <xm:f>'Options (Ignore)'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>J16 J2:J14</xm:sqref>
+          <xm:sqref>J31 J2:J29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select the field from the proposal you want in your Excel spreadsheet._x000a_" xr:uid="{ED19FA7F-0466-4F44-81DE-819E52E3AFC1}">
           <x14:formula1>
             <xm:f>'Options (Ignore)'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A16:A82 A2:A14</xm:sqref>
+          <xm:sqref>A31:A97 A2:A29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select how you want to filter data for in field. If you are using IN or BETWEEN use a comma-separated list. For BETWEEN put the lower end of your range first., e.g.: 2,5." xr:uid="{FEA64857-E951-453F-B873-F85426215CF0}">
           <x14:formula1>
             <xm:f>'Options (Ignore)'!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>B16:B76 B2:B14</xm:sqref>
+          <xm:sqref>B31:B91 B2:B29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBF6BF9F-3BCF-40E3-BF58-E25772258781}">
           <x14:formula1>
@@ -1251,7 +1324,7 @@
           <x14:formula1>
             <xm:f>'Options (Ignore)'!$E:$E</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H31</xm:sqref>
+          <xm:sqref>H2:H46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1261,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A8F092-27DE-412E-8E0F-037E456B2861}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView topLeftCell="A133" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,6 +2150,11 @@
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
